--- a/02_readin.xlsx
+++ b/02_readin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\uolCloud\Home-Cloud\Lehre\GradAB_R2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8165E23D-2596-4E6C-B275-39A0478073A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E14055-5CA3-467D-ADF2-02A4EE870A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24180" yWindow="2175" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="02_readin" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>{xlsx}</t>
   </si>
   <si>
-    <t>mit `sheetName` ggf. Tabellenblattname angeben</t>
-  </si>
-  <si>
     <t>große .csv</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>file type</t>
+  </si>
+  <si>
+    <t>use `sheetName` to select excel sheet</t>
   </si>
 </sst>
 </file>
@@ -971,66 +971,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1041,21 +1041,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1089,55 +1089,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C37D881-CC61-456C-9FB1-EC3BD031E559}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
